--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Bmp10-Bmpr1a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Bmp10-Bmpr1a.xlsx
@@ -546,10 +546,10 @@
         <v>0.229421</v>
       </c>
       <c r="I2">
-        <v>0.1407029844210547</v>
+        <v>0.06842864744397358</v>
       </c>
       <c r="J2">
-        <v>0.1407029844210547</v>
+        <v>0.06842864744397358</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.122124666666667</v>
+        <v>4.889237666666667</v>
       </c>
       <c r="N2">
-        <v>15.366374</v>
+        <v>14.667713</v>
       </c>
       <c r="O2">
-        <v>0.09590749833957241</v>
+        <v>0.09529921759032918</v>
       </c>
       <c r="P2">
-        <v>0.09590749833957241</v>
+        <v>0.09529921759032917</v>
       </c>
       <c r="Q2">
-        <v>0.3917076543837779</v>
+        <v>0.3738979315747779</v>
       </c>
       <c r="R2">
-        <v>3.525368889454001</v>
+        <v>3.365081384173001</v>
       </c>
       <c r="S2">
-        <v>0.01349447124473519</v>
+        <v>0.006521196562175161</v>
       </c>
       <c r="T2">
-        <v>0.01349447124473518</v>
+        <v>0.00652119656217516</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -608,10 +608,10 @@
         <v>0.229421</v>
       </c>
       <c r="I3">
-        <v>0.1407029844210547</v>
+        <v>0.06842864744397358</v>
       </c>
       <c r="J3">
-        <v>0.1407029844210547</v>
+        <v>0.06842864744397358</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>102.577454</v>
       </c>
       <c r="O3">
-        <v>0.6402256641145507</v>
+        <v>0.6664673019309815</v>
       </c>
       <c r="P3">
-        <v>0.6402256641145507</v>
+        <v>0.6664673019309812</v>
       </c>
       <c r="Q3">
-        <v>2.614824674903779</v>
+        <v>2.614824674903778</v>
       </c>
       <c r="R3">
-        <v>23.53342207413401</v>
+        <v>23.533422074134</v>
       </c>
       <c r="S3">
-        <v>0.09008166164386905</v>
+        <v>0.04560545603677142</v>
       </c>
       <c r="T3">
-        <v>0.09008166164386902</v>
+        <v>0.04560545603677141</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -670,40 +670,40 @@
         <v>0.229421</v>
       </c>
       <c r="I4">
-        <v>0.1407029844210547</v>
+        <v>0.06842864744397358</v>
       </c>
       <c r="J4">
-        <v>0.1407029844210547</v>
+        <v>0.06842864744397358</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.556675</v>
+        <v>0.06428533333333333</v>
       </c>
       <c r="N4">
-        <v>1.670025</v>
+        <v>0.192856</v>
       </c>
       <c r="O4">
-        <v>0.01042327356567948</v>
+        <v>0.001253026010776221</v>
       </c>
       <c r="P4">
-        <v>0.01042327356567948</v>
+        <v>0.001253026010776221</v>
       </c>
       <c r="Q4">
-        <v>0.04257097839166667</v>
+        <v>0.004916135152888889</v>
       </c>
       <c r="R4">
-        <v>0.3831388055250001</v>
+        <v>0.04424521637600001</v>
       </c>
       <c r="S4">
-        <v>0.001466585698128191</v>
+        <v>8.57428751295347E-05</v>
       </c>
       <c r="T4">
-        <v>0.001466585698128191</v>
+        <v>8.574287512953468E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,10 +732,10 @@
         <v>0.229421</v>
       </c>
       <c r="I5">
-        <v>0.1407029844210547</v>
+        <v>0.06842864744397358</v>
       </c>
       <c r="J5">
-        <v>0.1407029844210547</v>
+        <v>0.06842864744397358</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.054774</v>
+        <v>12.052907</v>
       </c>
       <c r="N5">
-        <v>36.164322</v>
+        <v>36.158721</v>
       </c>
       <c r="O5">
-        <v>0.2257155560685144</v>
+        <v>0.2349308184832226</v>
       </c>
       <c r="P5">
-        <v>0.2257155560685144</v>
+        <v>0.2349308184832226</v>
       </c>
       <c r="Q5">
-        <v>0.9218727686180002</v>
+        <v>0.9217299922823334</v>
       </c>
       <c r="R5">
-        <v>8.296854917561999</v>
+        <v>8.295569930541001</v>
       </c>
       <c r="S5">
-        <v>0.03175885236909789</v>
+        <v>0.01607599815171259</v>
       </c>
       <c r="T5">
-        <v>0.03175885236909787</v>
+        <v>0.01607599815171259</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,40 +794,40 @@
         <v>0.229421</v>
       </c>
       <c r="I6">
-        <v>0.1407029844210547</v>
+        <v>0.06842864744397358</v>
       </c>
       <c r="J6">
-        <v>0.1407029844210547</v>
+        <v>0.06842864744397358</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>1.480867666666667</v>
+        <v>0.1051546666666667</v>
       </c>
       <c r="N6">
-        <v>4.442603</v>
+        <v>0.315464</v>
       </c>
       <c r="O6">
-        <v>0.02772800791168296</v>
+        <v>0.002049635984690702</v>
       </c>
       <c r="P6">
-        <v>0.02772800791168296</v>
+        <v>0.002049635984690701</v>
       </c>
       <c r="Q6">
-        <v>0.1132473803181111</v>
+        <v>0.008041562927111112</v>
       </c>
       <c r="R6">
-        <v>1.019226422863</v>
+        <v>0.07237406634400001</v>
       </c>
       <c r="S6">
-        <v>0.00390141346522441</v>
+        <v>0.0001402538181848816</v>
       </c>
       <c r="T6">
-        <v>0.003901413465224409</v>
+        <v>0.0001402538181848816</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.315943</v>
+        <v>0.621785</v>
       </c>
       <c r="H7">
-        <v>0.947829</v>
+        <v>1.865355</v>
       </c>
       <c r="I7">
-        <v>0.5812997459727918</v>
+        <v>0.5563733034589394</v>
       </c>
       <c r="J7">
-        <v>0.5812997459727917</v>
+        <v>0.5563733034589394</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.122124666666667</v>
+        <v>4.889237666666667</v>
       </c>
       <c r="N7">
-        <v>15.366374</v>
+        <v>14.667713</v>
       </c>
       <c r="O7">
-        <v>0.09590749833957241</v>
+        <v>0.09529921759032918</v>
       </c>
       <c r="P7">
-        <v>0.09590749833957241</v>
+        <v>0.09529921759032917</v>
       </c>
       <c r="Q7">
-        <v>1.618299433560667</v>
+        <v>3.040054642568334</v>
       </c>
       <c r="R7">
-        <v>14.564694902046</v>
+        <v>27.360491783115</v>
       </c>
       <c r="S7">
-        <v>0.05575100442167939</v>
+        <v>0.05302194050778371</v>
       </c>
       <c r="T7">
-        <v>0.05575100442167938</v>
+        <v>0.05302194050778371</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.315943</v>
+        <v>0.621785</v>
       </c>
       <c r="H8">
-        <v>0.947829</v>
+        <v>1.865355</v>
       </c>
       <c r="I8">
-        <v>0.5812997459727918</v>
+        <v>0.5563733034589394</v>
       </c>
       <c r="J8">
-        <v>0.5812997459727917</v>
+        <v>0.5563733034589394</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>102.577454</v>
       </c>
       <c r="O8">
-        <v>0.6402256641145507</v>
+        <v>0.6664673019309815</v>
       </c>
       <c r="P8">
-        <v>0.6402256641145507</v>
+        <v>0.6664673019309812</v>
       </c>
       <c r="Q8">
-        <v>10.80287618304067</v>
+        <v>21.26037407846333</v>
       </c>
       <c r="R8">
-        <v>97.22588564736601</v>
+        <v>191.34336670617</v>
       </c>
       <c r="S8">
-        <v>0.3721630159150502</v>
+        <v>0.3708046144227066</v>
       </c>
       <c r="T8">
-        <v>0.3721630159150502</v>
+        <v>0.3708046144227065</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,46 +974,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.315943</v>
+        <v>0.621785</v>
       </c>
       <c r="H9">
-        <v>0.947829</v>
+        <v>1.865355</v>
       </c>
       <c r="I9">
-        <v>0.5812997459727918</v>
+        <v>0.5563733034589394</v>
       </c>
       <c r="J9">
-        <v>0.5812997459727917</v>
+        <v>0.5563733034589394</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.556675</v>
+        <v>0.06428533333333333</v>
       </c>
       <c r="N9">
-        <v>1.670025</v>
+        <v>0.192856</v>
       </c>
       <c r="O9">
-        <v>0.01042327356567948</v>
+        <v>0.001253026010776221</v>
       </c>
       <c r="P9">
-        <v>0.01042327356567948</v>
+        <v>0.001253026010776221</v>
       </c>
       <c r="Q9">
-        <v>0.175877569525</v>
+        <v>0.03997165598666667</v>
       </c>
       <c r="R9">
-        <v>1.582898125725</v>
+        <v>0.35974490388</v>
       </c>
       <c r="S9">
-        <v>0.006059046275934395</v>
+        <v>0.000697150220935543</v>
       </c>
       <c r="T9">
-        <v>0.006059046275934394</v>
+        <v>0.0006971502209355429</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.315943</v>
+        <v>0.621785</v>
       </c>
       <c r="H10">
-        <v>0.947829</v>
+        <v>1.865355</v>
       </c>
       <c r="I10">
-        <v>0.5812997459727918</v>
+        <v>0.5563733034589394</v>
       </c>
       <c r="J10">
-        <v>0.5812997459727917</v>
+        <v>0.5563733034589394</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.054774</v>
+        <v>12.052907</v>
       </c>
       <c r="N10">
-        <v>36.164322</v>
+        <v>36.158721</v>
       </c>
       <c r="O10">
-        <v>0.2257155560685144</v>
+        <v>0.2349308184832226</v>
       </c>
       <c r="P10">
-        <v>0.2257155560685144</v>
+        <v>0.2349308184832226</v>
       </c>
       <c r="Q10">
-        <v>3.808621461882</v>
+        <v>7.494316778995</v>
       </c>
       <c r="R10">
-        <v>34.277593156938</v>
+        <v>67.448851010955</v>
       </c>
       <c r="S10">
-        <v>0.1312083954047349</v>
+        <v>0.130709235563823</v>
       </c>
       <c r="T10">
-        <v>0.1312083954047348</v>
+        <v>0.130709235563823</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,46 +1098,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.315943</v>
+        <v>0.621785</v>
       </c>
       <c r="H11">
-        <v>0.947829</v>
+        <v>1.865355</v>
       </c>
       <c r="I11">
-        <v>0.5812997459727918</v>
+        <v>0.5563733034589394</v>
       </c>
       <c r="J11">
-        <v>0.5812997459727917</v>
+        <v>0.5563733034589394</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>1.480867666666667</v>
+        <v>0.1051546666666667</v>
       </c>
       <c r="N11">
-        <v>4.442603</v>
+        <v>0.315464</v>
       </c>
       <c r="O11">
-        <v>0.02772800791168296</v>
+        <v>0.002049635984690702</v>
       </c>
       <c r="P11">
-        <v>0.02772800791168296</v>
+        <v>0.002049635984690701</v>
       </c>
       <c r="Q11">
-        <v>0.4678697732096667</v>
+        <v>0.06538359441333334</v>
       </c>
       <c r="R11">
-        <v>4.210827958887</v>
+        <v>0.58845234972</v>
       </c>
       <c r="S11">
-        <v>0.01611828395539287</v>
+        <v>0.001140362743690682</v>
       </c>
       <c r="T11">
-        <v>0.01611828395539286</v>
+        <v>0.001140362743690682</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.1510946666666667</v>
+        <v>0.4193093333333334</v>
       </c>
       <c r="H12">
-        <v>0.453284</v>
+        <v>1.257928</v>
       </c>
       <c r="I12">
-        <v>0.2779972696061536</v>
+        <v>0.375198049097087</v>
       </c>
       <c r="J12">
-        <v>0.2779972696061536</v>
+        <v>0.375198049097087</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.122124666666667</v>
+        <v>4.889237666666667</v>
       </c>
       <c r="N12">
-        <v>15.366374</v>
+        <v>14.667713</v>
       </c>
       <c r="O12">
-        <v>0.09590749833957241</v>
+        <v>0.09529921759032918</v>
       </c>
       <c r="P12">
-        <v>0.09590749833957241</v>
+        <v>0.09529921759032917</v>
       </c>
       <c r="Q12">
-        <v>0.7739257191351112</v>
+        <v>2.050102986518223</v>
       </c>
       <c r="R12">
-        <v>6.965331472216</v>
+        <v>18.450926878664</v>
       </c>
       <c r="S12">
-        <v>0.02666202267315784</v>
+        <v>0.0357560805203703</v>
       </c>
       <c r="T12">
-        <v>0.02666202267315784</v>
+        <v>0.0357560805203703</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.1510946666666667</v>
+        <v>0.4193093333333334</v>
       </c>
       <c r="H13">
-        <v>0.453284</v>
+        <v>1.257928</v>
       </c>
       <c r="I13">
-        <v>0.2779972696061536</v>
+        <v>0.375198049097087</v>
       </c>
       <c r="J13">
-        <v>0.2779972696061536</v>
+        <v>0.375198049097087</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>102.577454</v>
       </c>
       <c r="O13">
-        <v>0.6402256641145507</v>
+        <v>0.6664673019309815</v>
       </c>
       <c r="P13">
-        <v>0.6402256641145507</v>
+        <v>0.6664673019309812</v>
       </c>
       <c r="Q13">
-        <v>5.166302073215112</v>
+        <v>14.33722795059022</v>
       </c>
       <c r="R13">
-        <v>46.49671865893601</v>
+        <v>129.035051555312</v>
       </c>
       <c r="S13">
-        <v>0.1779809865556315</v>
+        <v>0.2500572314715035</v>
       </c>
       <c r="T13">
-        <v>0.1779809865556315</v>
+        <v>0.2500572314715034</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>21</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.4193093333333334</v>
+      </c>
+      <c r="H14">
+        <v>1.257928</v>
+      </c>
+      <c r="I14">
+        <v>0.375198049097087</v>
+      </c>
+      <c r="J14">
+        <v>0.375198049097087</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G14">
-        <v>0.1510946666666667</v>
-      </c>
-      <c r="H14">
-        <v>0.453284</v>
-      </c>
-      <c r="I14">
-        <v>0.2779972696061536</v>
-      </c>
-      <c r="J14">
-        <v>0.2779972696061536</v>
-      </c>
-      <c r="K14">
-        <v>2</v>
-      </c>
-      <c r="L14">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M14">
-        <v>0.556675</v>
+        <v>0.06428533333333333</v>
       </c>
       <c r="N14">
-        <v>1.670025</v>
+        <v>0.192856</v>
       </c>
       <c r="O14">
-        <v>0.01042327356567948</v>
+        <v>0.001253026010776221</v>
       </c>
       <c r="P14">
-        <v>0.01042327356567948</v>
+        <v>0.001253026010776221</v>
       </c>
       <c r="Q14">
-        <v>0.08411062356666668</v>
+        <v>0.02695544026311111</v>
       </c>
       <c r="R14">
-        <v>0.7569956121000001</v>
+        <v>0.242598962368</v>
       </c>
       <c r="S14">
-        <v>0.002897641591616891</v>
+        <v>0.0004701329147111438</v>
       </c>
       <c r="T14">
-        <v>0.002897641591616891</v>
+        <v>0.0004701329147111437</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>26</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.1510946666666667</v>
+        <v>0.4193093333333334</v>
       </c>
       <c r="H15">
-        <v>0.453284</v>
+        <v>1.257928</v>
       </c>
       <c r="I15">
-        <v>0.2779972696061536</v>
+        <v>0.375198049097087</v>
       </c>
       <c r="J15">
-        <v>0.2779972696061536</v>
+        <v>0.375198049097087</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>12.054774</v>
+        <v>12.052907</v>
       </c>
       <c r="N15">
-        <v>36.164322</v>
+        <v>36.158721</v>
       </c>
       <c r="O15">
-        <v>0.2257155560685144</v>
+        <v>0.2349308184832226</v>
       </c>
       <c r="P15">
-        <v>0.2257155560685144</v>
+        <v>0.2349308184832226</v>
       </c>
       <c r="Q15">
-        <v>1.821412059272</v>
+        <v>5.053896398898667</v>
       </c>
       <c r="R15">
-        <v>16.392708533448</v>
+        <v>45.48506759008801</v>
       </c>
       <c r="S15">
-        <v>0.06274830829468167</v>
+        <v>0.08814558476768698</v>
       </c>
       <c r="T15">
-        <v>0.06274830829468166</v>
+        <v>0.088145584767687</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.1510946666666667</v>
+        <v>0.4193093333333334</v>
       </c>
       <c r="H16">
-        <v>0.453284</v>
+        <v>1.257928</v>
       </c>
       <c r="I16">
-        <v>0.2779972696061536</v>
+        <v>0.375198049097087</v>
       </c>
       <c r="J16">
-        <v>0.2779972696061536</v>
+        <v>0.375198049097087</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>1.480867666666667</v>
+        <v>0.1051546666666667</v>
       </c>
       <c r="N16">
-        <v>4.442603</v>
+        <v>0.315464</v>
       </c>
       <c r="O16">
-        <v>0.02772800791168296</v>
+        <v>0.002049635984690702</v>
       </c>
       <c r="P16">
-        <v>0.02772800791168296</v>
+        <v>0.002049635984690701</v>
       </c>
       <c r="Q16">
-        <v>0.2237512064724445</v>
+        <v>0.0440923331768889</v>
       </c>
       <c r="R16">
-        <v>2.013760858252</v>
+        <v>0.3968309985920001</v>
       </c>
       <c r="S16">
-        <v>0.007708310491065688</v>
+        <v>0.0007690194228151381</v>
       </c>
       <c r="T16">
-        <v>0.007708310491065687</v>
+        <v>0.0007690194228151381</v>
       </c>
     </row>
   </sheetData>
